--- a/Bateria_DP-203/Preguntas_DP_203.xlsx
+++ b/Bateria_DP-203/Preguntas_DP_203.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Profesor_AI\Documents\Repo\Big-Data-2024\Bateria_DP-203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Escritorio\Big-Data-2024\Bateria_DP-203\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E417A115-A5FC-4DC6-BF74-947AD583F186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A51D66-D3EE-463F-BFA3-671F4F591387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5865" xr2:uid="{27EE3F41-2AAE-42FC-9FEA-070A5667DC60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27EE3F41-2AAE-42FC-9FEA-070A5667DC60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -943,20 +943,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -977,9 +977,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1017,7 +1017,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1123,7 +1123,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1265,7 +1265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1275,8 +1275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C65825-E2B8-433A-8C12-17EE4D6FA7E3}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bateria_DP-203/Preguntas_DP_203.xlsx
+++ b/Bateria_DP-203/Preguntas_DP_203.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Escritorio\Big-Data-2024\Bateria_DP-203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Profesor_AI\Documents\Repo\Big-Data-2024\Bateria_DP-203\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A51D66-D3EE-463F-BFA3-671F4F591387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12749676-08F8-49B7-8A2E-4A531D5253DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27EE3F41-2AAE-42FC-9FEA-070A5667DC60}"/>
   </bookViews>
@@ -815,9 +815,6 @@
     <t>Preguntas:349-350</t>
   </si>
   <si>
-    <t>Bateria 8 (20 voluntarios)</t>
-  </si>
-  <si>
     <t>Ana Cristina</t>
   </si>
   <si>
@@ -825,6 +822,9 @@
   </si>
   <si>
     <t>Borja</t>
+  </si>
+  <si>
+    <t>Bateria 8</t>
   </si>
 </sst>
 </file>
@@ -977,9 +977,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1017,7 +1017,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1123,7 +1123,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1265,7 +1265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1275,11 +1275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C65825-E2B8-433A-8C12-17EE4D6FA7E3}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1311,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>91</v>
@@ -1386,6 +1386,9 @@
       <c r="K3" t="s">
         <v>218</v>
       </c>
+      <c r="L3">
+        <v>351</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1421,6 +1424,9 @@
       <c r="K4" t="s">
         <v>219</v>
       </c>
+      <c r="L4">
+        <v>352</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1456,6 +1462,9 @@
       <c r="K5" t="s">
         <v>220</v>
       </c>
+      <c r="L5">
+        <v>353</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1491,6 +1500,9 @@
       <c r="K6" t="s">
         <v>221</v>
       </c>
+      <c r="L6">
+        <v>354</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1526,6 +1538,9 @@
       <c r="K7" t="s">
         <v>222</v>
       </c>
+      <c r="L7">
+        <v>355</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1561,6 +1576,9 @@
       <c r="K8" t="s">
         <v>223</v>
       </c>
+      <c r="L8">
+        <v>356</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1596,6 +1614,9 @@
       <c r="K9" t="s">
         <v>224</v>
       </c>
+      <c r="L9">
+        <v>357</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1631,6 +1652,9 @@
       <c r="K10" t="s">
         <v>225</v>
       </c>
+      <c r="L10">
+        <v>358</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1666,6 +1690,9 @@
       <c r="K11" t="s">
         <v>226</v>
       </c>
+      <c r="L11">
+        <v>359</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1701,6 +1728,9 @@
       <c r="K12" t="s">
         <v>227</v>
       </c>
+      <c r="L12">
+        <v>360</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1736,6 +1766,9 @@
       <c r="K13" t="s">
         <v>228</v>
       </c>
+      <c r="L13">
+        <v>361</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1771,6 +1804,9 @@
       <c r="K14" t="s">
         <v>229</v>
       </c>
+      <c r="L14">
+        <v>362</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1806,6 +1842,9 @@
       <c r="K15" t="s">
         <v>230</v>
       </c>
+      <c r="L15">
+        <v>363</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1841,8 +1880,11 @@
       <c r="K16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1876,8 +1918,11 @@
       <c r="K17" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1911,8 +1956,11 @@
       <c r="K18" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1946,8 +1994,11 @@
       <c r="K19" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1981,8 +2032,11 @@
       <c r="K20" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2016,8 +2070,11 @@
       <c r="K21" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2051,8 +2108,11 @@
       <c r="K22" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2087,7 +2147,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2122,7 +2182,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2157,7 +2217,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2192,18 +2252,18 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>85</v>
@@ -2227,12 +2287,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G30" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>117</v>
       </c>
